--- a/artfynd/A 39697-2025 artfynd.xlsx
+++ b/artfynd/A 39697-2025 artfynd.xlsx
@@ -16647,7 +16647,7 @@
         <v>130828940</v>
       </c>
       <c r="B128" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
